--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F189" t="n">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>25/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>25/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/12/2022</t>
+          <t>23/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>24/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Compañía Minera Pullalli SpA</t>
+          <t>Minera Cemin-Pullalli SpA.</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Compañía Minera Pullalli SpA</t>
+          <t>Minera Cemin-Pullalli SpA.</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Compañía Minera Pullalli SpA</t>
+          <t>Minera Cemin-Pullalli SpA.</t>
         </is>
       </c>
       <c r="F26" t="n">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
+          <t>Casas Viejas Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Conexión Kimal Lo Aguirre S.A</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>116000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>25/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,30 +472,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Casas Viejas Solar</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>116000</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -424,30 +424,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Casas Viejas Solar</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>116000</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
+          <t>Casas Viejas Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Conexión Kimal Lo Aguirre S.A</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>116000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>25/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">

--- a/data/La Ligua.xlsx
+++ b/data/La Ligua.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
